--- a/example/inputs/template_scenario_difference_file.xlsx
+++ b/example/inputs/template_scenario_difference_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\bw-superstructure\example\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21451821-054A-4FD5-B30F-AAF433E4C283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798642DA-6F2E-4A86-AB31-0AE6F71515EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
